--- a/backend/fms_core/static/submission_templates/Sample_extraction_v3_2_0.xlsx
+++ b/backend/fms_core/static/submission_templates/Sample_extraction_v3_2_0.xlsx
@@ -32,7 +32,7 @@
     <t xml:space="preserve">Naming Rules</t>
   </si>
   <si>
-    <t xml:space="preserve">- Only use the following characters for Sample name and Barcode: a-z, A-Z, 0-9, period (.), dash (-), underscore ( _ )</t>
+    <t xml:space="preserve">- Only use the following characters for Sample name: a-z, A-Z, 0-9, period (.), dash (-), underscore ( _ )</t>
   </si>
   <si>
     <t xml:space="preserve">#</t>
@@ -1749,7 +1749,7 @@
       <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="14" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="14" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="16"/>
@@ -4127,7 +4127,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="9.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="25.38"/>
